--- a/Actividad-Pendientes.xlsx
+++ b/Actividad-Pendientes.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Entrega</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
@@ -36,12 +30,6 @@
     <t>Actualizar</t>
   </si>
   <si>
-    <t>Matias</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
     <t>Manual Profesor</t>
   </si>
   <si>
@@ -51,18 +39,12 @@
     <t>Nuevo</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>Ver en todos los botones de las interfaces</t>
   </si>
   <si>
     <t>Boton visualizar borrar</t>
   </si>
   <si>
-    <t>Denise</t>
-  </si>
-  <si>
     <t>Duplicado con imprimir</t>
   </si>
   <si>
@@ -87,9 +69,6 @@
     <t>Analizar cambios</t>
   </si>
   <si>
-    <t>Febrero</t>
-  </si>
-  <si>
     <t>Porque la BD no considera alumnos y el sistema tampoco de profesor</t>
   </si>
   <si>
@@ -99,9 +78,6 @@
     <t>Corregir</t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
     <t>Si el alumno se equivoca de ip se rompe el proyecto</t>
   </si>
   <si>
@@ -117,9 +93,6 @@
     <t>Boton seleccionar y deseleccionar todo en importar preguntas</t>
   </si>
   <si>
-    <t>Jose</t>
-  </si>
-  <si>
     <t>Info del diseño de examen</t>
   </si>
   <si>
@@ -132,9 +105,6 @@
     <t>No permitir que se muestre automaticamente correccion al finalizar examen</t>
   </si>
   <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Analizar como se implementa</t>
   </si>
   <si>
@@ -168,19 +138,7 @@
     <t>Actulizar Documentos Gestion y Planes</t>
   </si>
   <si>
-    <t>Diciembre y Febrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bug de preguntas en diseños de examen que se repiten solas </t>
-  </si>
-  <si>
-    <t>Completo</t>
-  </si>
-  <si>
-    <t>En Progreso</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
   <si>
     <t>Actulizar</t>
@@ -190,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +167,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,28 +217,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,21 +546,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -592,463 +568,289 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
